--- a/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
+++ b/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-minnesota\InputData\trans\AVMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/OR/trans/AVMC/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15C37174-EC24-0C42-B981-758D4130C27A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585"/>
+    <workbookView xWindow="3740" yWindow="460" windowWidth="24440" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="134">
   <si>
     <t>Sources:</t>
   </si>
@@ -442,12 +443,15 @@
   </si>
   <si>
     <t>AVMC Annual Vehicle Maintenance Cost</t>
+  </si>
+  <si>
+    <t>Oregon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -1273,7 +1277,7 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1308,150 +1312,149 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="140" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="141">
-    <cellStyle name="20% - Accent1 2" xfId="15"/>
-    <cellStyle name="20% - Accent2 2" xfId="16"/>
-    <cellStyle name="20% - Accent3 2" xfId="17"/>
-    <cellStyle name="20% - Accent4 2" xfId="18"/>
-    <cellStyle name="20% - Accent5 2" xfId="19"/>
-    <cellStyle name="20% - Accent6 2" xfId="20"/>
-    <cellStyle name="40% - Accent1 2" xfId="21"/>
-    <cellStyle name="40% - Accent2 2" xfId="22"/>
-    <cellStyle name="40% - Accent3 2" xfId="23"/>
-    <cellStyle name="40% - Accent4 2" xfId="24"/>
-    <cellStyle name="40% - Accent5 2" xfId="25"/>
-    <cellStyle name="40% - Accent6 2" xfId="26"/>
-    <cellStyle name="60% - Accent1 2" xfId="27"/>
-    <cellStyle name="60% - Accent2 2" xfId="28"/>
-    <cellStyle name="60% - Accent3 2" xfId="29"/>
-    <cellStyle name="60% - Accent4 2" xfId="30"/>
-    <cellStyle name="60% - Accent5 2" xfId="31"/>
-    <cellStyle name="60% - Accent6 2" xfId="32"/>
-    <cellStyle name="Accent1 2" xfId="33"/>
-    <cellStyle name="Accent2 2" xfId="34"/>
-    <cellStyle name="Accent3 2" xfId="35"/>
-    <cellStyle name="Accent4 2" xfId="36"/>
-    <cellStyle name="Accent5 2" xfId="37"/>
-    <cellStyle name="Accent6 2" xfId="38"/>
-    <cellStyle name="Bad 2" xfId="39"/>
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Calculation 2" xfId="40"/>
-    <cellStyle name="Check Cell 2" xfId="41"/>
-    <cellStyle name="Comma 2" xfId="42"/>
-    <cellStyle name="Comma 2 2" xfId="11"/>
-    <cellStyle name="Comma 2 2 2" xfId="43"/>
-    <cellStyle name="Comma 2 2 3" xfId="44"/>
-    <cellStyle name="Comma 2 3" xfId="45"/>
-    <cellStyle name="Comma 3" xfId="46"/>
-    <cellStyle name="Comma 4" xfId="47"/>
-    <cellStyle name="Comma 5" xfId="48"/>
-    <cellStyle name="Comma 6" xfId="49"/>
-    <cellStyle name="Comma 7" xfId="50"/>
-    <cellStyle name="Currency 2" xfId="51"/>
-    <cellStyle name="Currency 3" xfId="52"/>
-    <cellStyle name="Currency 3 2" xfId="53"/>
-    <cellStyle name="Data" xfId="54"/>
-    <cellStyle name="Data no deci" xfId="55"/>
-    <cellStyle name="Data Superscript" xfId="56"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="57"/>
-    <cellStyle name="Explanatory Text 2" xfId="58"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Footnotes: top row" xfId="2"/>
-    <cellStyle name="Good 2" xfId="59"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
-    <cellStyle name="Heading 1 2" xfId="60"/>
-    <cellStyle name="Heading 2 2" xfId="61"/>
-    <cellStyle name="Heading 3 2" xfId="62"/>
-    <cellStyle name="Heading 4 2" xfId="63"/>
-    <cellStyle name="Hed Side" xfId="13"/>
-    <cellStyle name="Hed Side bold" xfId="64"/>
-    <cellStyle name="Hed Side Indent" xfId="65"/>
-    <cellStyle name="Hed Side Regular" xfId="66"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="67"/>
-    <cellStyle name="Hed Top" xfId="68"/>
+    <cellStyle name="20% - Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Calculation 2" xfId="40" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Check Cell 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Comma 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Comma 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Comma 2 2 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Comma 2 2 3" xfId="44" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Comma 2 3" xfId="45" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Comma 3" xfId="46" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Comma 4" xfId="47" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Comma 5" xfId="48" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Comma 6" xfId="49" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Comma 7" xfId="50" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Currency 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Currency 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Currency 3 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Data" xfId="54" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Data no deci" xfId="55" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Data Superscript" xfId="56" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="57" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Good 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Heading 1 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Heading 2 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Heading 3 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Heading 4 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Hed Side" xfId="13" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Hed Side bold" xfId="64" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Hed Side Indent" xfId="65" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Hed Side Regular" xfId="66" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Hed Top" xfId="68" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
     <cellStyle name="Hyperlink" xfId="140" builtinId="8"/>
-    <cellStyle name="Input 2" xfId="69"/>
-    <cellStyle name="Linked Cell 2" xfId="70"/>
-    <cellStyle name="Neutral 2" xfId="71"/>
+    <cellStyle name="Input 2" xfId="69" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Neutral 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="72"/>
-    <cellStyle name="Normal 11" xfId="10"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="73"/>
-    <cellStyle name="Normal 2 2 2" xfId="74"/>
-    <cellStyle name="Normal 2 2 3" xfId="75"/>
-    <cellStyle name="Normal 2 3" xfId="76"/>
-    <cellStyle name="Normal 2 4" xfId="77"/>
-    <cellStyle name="Normal 3" xfId="8"/>
-    <cellStyle name="Normal 3 2" xfId="78"/>
-    <cellStyle name="Normal 3 2 2" xfId="79"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="80"/>
-    <cellStyle name="Normal 3 2 3" xfId="81"/>
-    <cellStyle name="Normal 3 3" xfId="82"/>
-    <cellStyle name="Normal 3 3 2" xfId="83"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="84"/>
-    <cellStyle name="Normal 3 3 3" xfId="85"/>
-    <cellStyle name="Normal 3 4" xfId="86"/>
-    <cellStyle name="Normal 3 4 2" xfId="87"/>
-    <cellStyle name="Normal 3 5" xfId="88"/>
-    <cellStyle name="Normal 3 6" xfId="89"/>
-    <cellStyle name="Normal 3 7" xfId="90"/>
-    <cellStyle name="Normal 3 8" xfId="91"/>
-    <cellStyle name="Normal 3 9" xfId="12"/>
-    <cellStyle name="Normal 4" xfId="92"/>
-    <cellStyle name="Normal 4 2" xfId="93"/>
-    <cellStyle name="Normal 4 2 2" xfId="94"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="95"/>
-    <cellStyle name="Normal 4 2 3" xfId="96"/>
-    <cellStyle name="Normal 4 3" xfId="97"/>
-    <cellStyle name="Normal 4 3 2" xfId="98"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="99"/>
-    <cellStyle name="Normal 4 3 3" xfId="100"/>
-    <cellStyle name="Normal 4 4" xfId="101"/>
-    <cellStyle name="Normal 4 4 2" xfId="102"/>
-    <cellStyle name="Normal 4 5" xfId="103"/>
-    <cellStyle name="Normal 4 6" xfId="104"/>
-    <cellStyle name="Normal 4 7" xfId="105"/>
-    <cellStyle name="Normal 4 8" xfId="106"/>
-    <cellStyle name="Normal 5" xfId="107"/>
-    <cellStyle name="Normal 5 2" xfId="108"/>
-    <cellStyle name="Normal 5 3" xfId="109"/>
-    <cellStyle name="Normal 6" xfId="110"/>
-    <cellStyle name="Normal 6 2" xfId="111"/>
-    <cellStyle name="Normal 7" xfId="112"/>
-    <cellStyle name="Normal 8" xfId="113"/>
-    <cellStyle name="Normal 9" xfId="114"/>
-    <cellStyle name="Note 2" xfId="115"/>
-    <cellStyle name="Note 2 2" xfId="116"/>
-    <cellStyle name="Output 2" xfId="117"/>
-    <cellStyle name="Parent row" xfId="3"/>
-    <cellStyle name="Percent 2" xfId="118"/>
-    <cellStyle name="Percent 2 2" xfId="119"/>
-    <cellStyle name="Percent 3" xfId="120"/>
-    <cellStyle name="Percent 3 2" xfId="121"/>
-    <cellStyle name="Source Hed" xfId="122"/>
-    <cellStyle name="Source Superscript" xfId="123"/>
-    <cellStyle name="Source Text" xfId="9"/>
-    <cellStyle name="State" xfId="124"/>
-    <cellStyle name="Superscript" xfId="125"/>
-    <cellStyle name="Table Data" xfId="126"/>
-    <cellStyle name="Table Head Top" xfId="127"/>
-    <cellStyle name="Table Hed Side" xfId="128"/>
-    <cellStyle name="Table title" xfId="7"/>
-    <cellStyle name="Title 2" xfId="129"/>
-    <cellStyle name="Title Text" xfId="130"/>
-    <cellStyle name="Title Text 1" xfId="131"/>
-    <cellStyle name="Title Text 2" xfId="132"/>
-    <cellStyle name="Title-1" xfId="14"/>
-    <cellStyle name="Title-2" xfId="133"/>
-    <cellStyle name="Title-3" xfId="134"/>
-    <cellStyle name="Total 2" xfId="135"/>
-    <cellStyle name="Warning Text 2" xfId="136"/>
-    <cellStyle name="Wrap" xfId="137"/>
-    <cellStyle name="Wrap Bold" xfId="138"/>
-    <cellStyle name="Wrap Title" xfId="139"/>
+    <cellStyle name="Normal 10" xfId="72" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Normal 11" xfId="10" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Normal 2 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="75" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Normal 2 3" xfId="76" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Normal 2 4" xfId="77" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Normal 3" xfId="8" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Normal 3 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="81" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Normal 3 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 3 4" xfId="86" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 3 5" xfId="88" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 3 6" xfId="89" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 3 7" xfId="90" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 3 8" xfId="91" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 3 9" xfId="12" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 4" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 4 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 4 3" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 4 3 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 4 3 3" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 4 4" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 4 4 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 4 5" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 4 6" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 4 7" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 4 8" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 5" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 5 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 5 3" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 6" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 6 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 7" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 8" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 9" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Note 2" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Note 2 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Output 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Percent 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Percent 2 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Percent 3" xfId="120" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Percent 3 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Source Hed" xfId="122" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Source Superscript" xfId="123" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Source Text" xfId="9" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="State" xfId="124" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Superscript" xfId="125" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Table Data" xfId="126" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Table Head Top" xfId="127" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Table Hed Side" xfId="128" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Title 2" xfId="129" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Title Text" xfId="130" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Title Text 1" xfId="131" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Title Text 2" xfId="132" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Title-1" xfId="14" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Title-2" xfId="133" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Title-3" xfId="134" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Total 2" xfId="135" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Warning Text 2" xfId="136" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Wrap" xfId="137" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Wrap Bold" xfId="138" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Wrap Title" xfId="139" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1623,6 +1626,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1658,6 +1678,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1833,20 +1870,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="73.1328125" customWidth="1"/>
+    <col min="2" max="2" width="73.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -2168,15 +2208,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
-    <hyperlink ref="B28" r:id="rId3" display="https://www.icao.int/MID/Documents/2017/Aviation Data and Analysis Seminar/PPT3 - Airlines Operating costs and productivity.pdf"/>
-    <hyperlink ref="B21" r:id="rId4"/>
-    <hyperlink ref="B35" r:id="rId5"/>
-    <hyperlink ref="B41" r:id="rId6"/>
-    <hyperlink ref="B48" r:id="rId7"/>
-    <hyperlink ref="B55" r:id="rId8" display="http://www.sparusa.com/Presentations/Presentation-Commercial Ship Life Cycle &amp; Required Freight Rate (RFR) Cost Model.pdf"/>
-    <hyperlink ref="B62" r:id="rId9"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{F7E7A3DE-93B2-4E97-8034-BE9FA2CBB032}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{0A5F8456-85E2-4B46-98CB-42301965587F}"/>
+    <hyperlink ref="B28" r:id="rId3" display="https://www.icao.int/MID/Documents/2017/Aviation Data and Analysis Seminar/PPT3 - Airlines Operating costs and productivity.pdf" xr:uid="{32C07062-31D6-4D64-9941-54355C398A54}"/>
+    <hyperlink ref="B21" r:id="rId4" xr:uid="{A1682FDD-C2BD-495E-8A6B-5F03193720A5}"/>
+    <hyperlink ref="B35" r:id="rId5" xr:uid="{86CB5594-D53D-4996-A0D1-BB39C7D7D625}"/>
+    <hyperlink ref="B41" r:id="rId6" xr:uid="{B0ED8C7C-30CE-4966-BD3F-14CBF2AB2A2B}"/>
+    <hyperlink ref="B48" r:id="rId7" xr:uid="{B27ABC8E-899E-48AC-8608-F37B2EDFED93}"/>
+    <hyperlink ref="B55" r:id="rId8" display="http://www.sparusa.com/Presentations/Presentation-Commercial Ship Life Cycle &amp; Required Freight Rate (RFR) Cost Model.pdf" xr:uid="{4BC70352-C238-4681-9474-B434C82A9EE6}"/>
+    <hyperlink ref="B62" r:id="rId9" xr:uid="{5439DEF3-45BA-42A3-B033-B27D7C2B3817}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
@@ -2184,18 +2224,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA56E7A-E0B4-48E9-AA66-C39B91D43ABA}">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.59765625" customWidth="1"/>
-    <col min="2" max="2" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.265625" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2859,13 +2897,13 @@
       <c r="A88" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B88" s="28">
-        <f>B54/10</f>
-        <v>333211.96733545553</v>
-      </c>
-      <c r="C88" s="28">
-        <f>B55/10</f>
-        <v>243411.80622207024</v>
+      <c r="B88" s="20">
+        <f>B54</f>
+        <v>3332119.6733545554</v>
+      </c>
+      <c r="C88" s="20">
+        <f>B55</f>
+        <v>2434118.0622207024</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2939,9 +2977,9 @@
       <c r="A96" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B96" s="28">
-        <f>B87/10</f>
-        <v>227931.89754813974</v>
+      <c r="B96" s="20">
+        <f>B87</f>
+        <v>2279318.9754813975</v>
       </c>
       <c r="C96" t="e">
         <f>NA()</f>
@@ -2989,9 +3027,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B13" r:id="rId2"/>
-    <hyperlink ref="A65" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{DEA7D659-12AB-4A56-889B-D770D6477AD9}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{83856772-5164-484D-9C39-5E905DAB68CE}"/>
+    <hyperlink ref="A65" r:id="rId3" xr:uid="{CF3217FC-13DF-41C0-A64F-4474765B54A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -2999,27 +3037,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" customWidth="1"/>
-    <col min="3" max="3" width="20.86328125" customWidth="1"/>
-    <col min="4" max="4" width="18.265625" customWidth="1"/>
-    <col min="5" max="5" width="17.1328125" customWidth="1"/>
-    <col min="6" max="8" width="23.265625" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="8" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="16">
       <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
@@ -3148,31 +3184,31 @@
       </c>
       <c r="B5" s="5">
         <f>'Cost Data'!$C88</f>
-        <v>243411.80622207024</v>
+        <v>2434118.0622207024</v>
       </c>
       <c r="C5" s="5">
         <f>'Cost Data'!$B88</f>
-        <v>333211.96733545553</v>
+        <v>3332119.6733545554</v>
       </c>
       <c r="D5" s="5">
         <f>'Cost Data'!$B88</f>
-        <v>333211.96733545553</v>
+        <v>3332119.6733545554</v>
       </c>
       <c r="E5" s="5">
         <f>'Cost Data'!$B88</f>
-        <v>333211.96733545553</v>
+        <v>3332119.6733545554</v>
       </c>
       <c r="F5" s="5">
         <f>'Cost Data'!$B88</f>
-        <v>333211.96733545553</v>
+        <v>3332119.6733545554</v>
       </c>
       <c r="G5" s="5">
         <f>'Cost Data'!$B88</f>
-        <v>333211.96733545553</v>
+        <v>3332119.6733545554</v>
       </c>
       <c r="H5" s="5">
         <f>'Cost Data'!$C88</f>
-        <v>243411.80622207024</v>
+        <v>2434118.0622207024</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3258,27 +3294,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" customWidth="1"/>
-    <col min="3" max="3" width="20.86328125" customWidth="1"/>
-    <col min="4" max="4" width="18.265625" customWidth="1"/>
-    <col min="5" max="5" width="17.1328125" customWidth="1"/>
-    <col min="6" max="8" width="23.265625" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="8" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="16">
       <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
@@ -3379,23 +3413,23 @@
       </c>
       <c r="C4" s="6">
         <f>'Cost Data'!$B96</f>
-        <v>227931.89754813974</v>
+        <v>2279318.9754813975</v>
       </c>
       <c r="D4" s="6">
         <f>'Cost Data'!$B96</f>
-        <v>227931.89754813974</v>
+        <v>2279318.9754813975</v>
       </c>
       <c r="E4" s="6">
         <f>'Cost Data'!$B96</f>
-        <v>227931.89754813974</v>
+        <v>2279318.9754813975</v>
       </c>
       <c r="F4" s="6">
         <f>'Cost Data'!$B96</f>
-        <v>227931.89754813974</v>
+        <v>2279318.9754813975</v>
       </c>
       <c r="G4" s="6">
         <f>'Cost Data'!$B96</f>
-        <v>227931.89754813974</v>
+        <v>2279318.9754813975</v>
       </c>
       <c r="H4" s="26">
         <v>0</v>

--- a/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
+++ b/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/OR/trans/AVMC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/trans/avmc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15C37174-EC24-0C42-B981-758D4130C27A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9CBCCF-1D3E-254E-AA16-CB4E4482CF6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="460" windowWidth="24440" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3740" yWindow="460" windowWidth="24440" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="133">
   <si>
     <t>Sources:</t>
   </si>
@@ -443,9 +443,6 @@
   </si>
   <si>
     <t>AVMC Annual Vehicle Maintenance Cost</t>
-  </si>
-  <si>
-    <t>Oregon</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1274,7 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1312,6 +1309,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="140" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="141">
     <cellStyle name="20% - Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1871,7 +1869,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1880,15 +1878,15 @@
     <col min="2" max="2" width="73.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C1" s="28">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1896,57 +1894,57 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="B5" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="B11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="B12" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="B13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="B14" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="B15" t="s">
         <v>44</v>
       </c>

--- a/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
+++ b/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/trans/avmc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/trans/avmc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9CBCCF-1D3E-254E-AA16-CB4E4482CF6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C918BEE-207A-914C-B130-993AA72B1405}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="460" windowWidth="24440" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3740" yWindow="460" windowWidth="24440" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>

--- a/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
+++ b/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us-analysis\InputData\trans\AVMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-oregon\InputData\trans\AVMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B3C505-ECAA-49CA-9672-DF5CF56F78F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E467C304-77C0-4F8A-A60E-A74F8115DF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="141">
   <si>
     <t>Sources:</t>
   </si>
@@ -464,6 +464,9 @@
   </si>
   <si>
     <t>LBNL: Includes annual ongoing mainteance and annualized battery replacement every 7 years over a 28 year life</t>
+  </si>
+  <si>
+    <t>rail cars per locomotive</t>
   </si>
 </sst>
 </file>
@@ -2272,10 +2275,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA56E7A-E0B4-48E9-AA66-C39B91D43ABA}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2758,333 +2761,341 @@
       <c r="B57" s="17"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="B58" s="13"/>
+      <c r="A58" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" s="19">
+        <v>10</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="2" t="s">
+      <c r="B59" s="13"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="11"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
+      <c r="B60" s="18"/>
+      <c r="C60" s="11"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="17">
+      <c r="B61" s="17">
         <v>1000</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="B61" s="17">
-        <f>B60*About!A76</f>
+    <row r="62" spans="1:4">
+      <c r="B62" s="17">
+        <f>B61*About!A76</f>
         <v>914.32735845675347</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="13"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B63" s="13"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B64" s="13"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="13"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="13"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="9" t="s">
+      <c r="B66" s="13"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B66" s="13"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
+      <c r="B67" s="13"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="13"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="2" t="s">
+      <c r="B68" s="13"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="1" t="s">
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
         <v>111</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B72" s="17">
         <v>1695890</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="1" t="s">
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="14" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
         <v>111</v>
       </c>
-      <c r="B77" s="25">
+      <c r="B78" s="25">
         <v>0.1</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="14" t="s">
+    <row r="79" spans="1:4">
+      <c r="A79" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B78" s="10">
+      <c r="B79" s="10">
         <v>30000</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>123</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D79" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
         <v>111</v>
       </c>
-      <c r="B79" s="10">
-        <f>B77*B78</f>
+      <c r="B80" s="10">
+        <f>B78*B79</f>
         <v>3000</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="15" t="s">
+    <row r="85" spans="1:3">
+      <c r="A85" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="B86" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1" t="s">
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B86" s="20">
+      <c r="B87" s="20">
         <f>B20</f>
         <v>656.31362430473212</v>
       </c>
-      <c r="C86" s="20">
+      <c r="C87" s="20">
         <f>B21</f>
         <v>344.72326776048766</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1" t="s">
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="20">
+      <c r="B88" s="20">
         <f>B33</f>
         <v>2482.986689554888</v>
       </c>
-      <c r="C87" s="20">
+      <c r="C88" s="20">
         <f>B34</f>
         <v>1950.9181132216977</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1" t="s">
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B88" s="20">
+      <c r="B89" s="20">
         <f>B41</f>
         <v>2279318.9754813975</v>
       </c>
-      <c r="C88" t="e">
+      <c r="C89" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1" t="s">
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B89" s="20">
+      <c r="B90" s="20">
         <f>B55</f>
         <v>3332119.6733545554</v>
       </c>
-      <c r="C89" s="20">
+      <c r="C90" s="20">
         <f>B56</f>
         <v>2434118.0622207024</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1" t="s">
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="20">
-        <f>B79</f>
+      <c r="B91" s="20">
+        <f>B80</f>
         <v>3000</v>
       </c>
-      <c r="C90" t="e">
+      <c r="C91" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1" t="s">
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="20">
-        <f>B61</f>
+      <c r="B92" s="20">
+        <f>B62</f>
         <v>914.32735845675347</v>
       </c>
-      <c r="C91" s="21">
-        <f>B91*(C86/B86)</f>
+      <c r="C92" s="21">
+        <f>B92*(C87/B87)</f>
         <v>480.24283381885334</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="15" t="s">
+    <row r="94" spans="1:3">
+      <c r="A94" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="B95" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B95" s="20">
-        <f>B86</f>
-        <v>656.31362430473212</v>
-      </c>
-      <c r="C95" s="20">
-        <f>C86</f>
-        <v>344.72326776048766</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="20">
+        <f>B87</f>
+        <v>656.31362430473212</v>
+      </c>
+      <c r="C96" s="20">
+        <f>C87</f>
+        <v>344.72326776048766</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="20">
+      <c r="B97" s="20">
         <f>B24</f>
         <v>15000</v>
       </c>
-      <c r="C96" s="21">
-        <f>B96*(C87/B87)</f>
+      <c r="C97" s="21">
+        <f>B97*(C88/B88)</f>
         <v>11785.714285714286</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1" t="s">
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B97" s="20">
-        <f>B88</f>
+      <c r="B98" s="20">
+        <f>B89</f>
         <v>2279318.9754813975</v>
       </c>
-      <c r="C97" t="e">
+      <c r="C98" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1" t="s">
+    <row r="99" spans="1:3">
+      <c r="A99" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="20">
+      <c r="B99" s="20">
         <f>B55</f>
         <v>3332119.6733545554</v>
       </c>
-      <c r="C98" s="20">
+      <c r="C99" s="20">
         <f>B56</f>
         <v>2434118.0622207024</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1" t="s">
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B99" s="20">
-        <f>B71</f>
+      <c r="B100" s="20">
+        <f>B72</f>
         <v>1695890</v>
       </c>
-      <c r="C99" t="e">
+      <c r="C100" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1" t="s">
+    <row r="101" spans="1:3">
+      <c r="A101" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B100" t="e">
+      <c r="B101" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="C100" t="e">
+      <c r="C101" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -3093,7 +3104,7 @@
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{DEA7D659-12AB-4A56-889B-D770D6477AD9}"/>
     <hyperlink ref="B13" r:id="rId2" xr:uid="{83856772-5164-484D-9C39-5E905DAB68CE}"/>
-    <hyperlink ref="A66" r:id="rId3" xr:uid="{CF3217FC-13DF-41C0-A64F-4474765B54A2}"/>
+    <hyperlink ref="A67" r:id="rId3" xr:uid="{CF3217FC-13DF-41C0-A64F-4474765B54A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -3107,7 +3118,9 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3150,31 +3163,31 @@
         <v>2</v>
       </c>
       <c r="B2" s="5">
-        <f>'Cost Data'!$C86</f>
+        <f>'Cost Data'!$C87</f>
         <v>344.72326776048766</v>
       </c>
       <c r="C2" s="5">
-        <f>'Cost Data'!$B86</f>
+        <f>'Cost Data'!$B87</f>
         <v>656.31362430473212</v>
       </c>
       <c r="D2" s="5">
-        <f>'Cost Data'!$B86</f>
+        <f>'Cost Data'!$B87</f>
         <v>656.31362430473212</v>
       </c>
       <c r="E2" s="5">
-        <f>'Cost Data'!$B86</f>
+        <f>'Cost Data'!$B87</f>
         <v>656.31362430473212</v>
       </c>
       <c r="F2" s="5">
-        <f>'Cost Data'!$B86</f>
+        <f>'Cost Data'!$B87</f>
         <v>656.31362430473212</v>
       </c>
       <c r="G2" s="5">
-        <f>'Cost Data'!$B86</f>
+        <f>'Cost Data'!$B87</f>
         <v>656.31362430473212</v>
       </c>
       <c r="H2" s="5">
-        <f>'Cost Data'!$C86</f>
+        <f>'Cost Data'!$C87</f>
         <v>344.72326776048766</v>
       </c>
     </row>
@@ -3183,31 +3196,31 @@
         <v>3</v>
       </c>
       <c r="B3" s="5">
-        <f>'Cost Data'!$C87</f>
+        <f>'Cost Data'!$C88</f>
         <v>1950.9181132216977</v>
       </c>
       <c r="C3" s="5">
-        <f>'Cost Data'!$B87</f>
+        <f>'Cost Data'!$B88</f>
         <v>2482.986689554888</v>
       </c>
       <c r="D3" s="5">
-        <f>'Cost Data'!$B87</f>
+        <f>'Cost Data'!$B88</f>
         <v>2482.986689554888</v>
       </c>
       <c r="E3" s="5">
-        <f>'Cost Data'!$B87</f>
+        <f>'Cost Data'!$B88</f>
         <v>2482.986689554888</v>
       </c>
       <c r="F3" s="5">
-        <f>'Cost Data'!$B87</f>
+        <f>'Cost Data'!$B88</f>
         <v>2482.986689554888</v>
       </c>
       <c r="G3" s="5">
-        <f>'Cost Data'!$B87</f>
+        <f>'Cost Data'!$B88</f>
         <v>2482.986689554888</v>
       </c>
       <c r="H3" s="5">
-        <f>'Cost Data'!$C87</f>
+        <f>'Cost Data'!$C88</f>
         <v>1950.9181132216977</v>
       </c>
     </row>
@@ -3219,23 +3232,23 @@
         <v>0</v>
       </c>
       <c r="C4" s="5">
-        <f>'Cost Data'!$B88</f>
+        <f>'Cost Data'!$B89</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="D4" s="5">
-        <f>'Cost Data'!$B88</f>
+        <f>'Cost Data'!$B89</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="E4" s="5">
-        <f>'Cost Data'!$B88</f>
+        <f>'Cost Data'!$B89</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="F4" s="5">
-        <f>'Cost Data'!$B88</f>
+        <f>'Cost Data'!$B89</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="G4" s="5">
-        <f>'Cost Data'!$B88</f>
+        <f>'Cost Data'!$B89</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="H4" s="26">
@@ -3247,32 +3260,32 @@
         <v>5</v>
       </c>
       <c r="B5" s="5">
-        <f>'Cost Data'!$C89</f>
-        <v>2434118.0622207024</v>
+        <f>'Cost Data'!$C90/'Cost Data'!$B$58</f>
+        <v>243411.80622207024</v>
       </c>
       <c r="C5" s="5">
-        <f>'Cost Data'!$B89</f>
-        <v>3332119.6733545554</v>
+        <f>'Cost Data'!$B90/'Cost Data'!$B$58</f>
+        <v>333211.96733545553</v>
       </c>
       <c r="D5" s="5">
-        <f>'Cost Data'!$B89</f>
-        <v>3332119.6733545554</v>
+        <f>'Cost Data'!$B90/'Cost Data'!$B$58</f>
+        <v>333211.96733545553</v>
       </c>
       <c r="E5" s="5">
-        <f>'Cost Data'!$B89</f>
-        <v>3332119.6733545554</v>
+        <f>'Cost Data'!$B90/'Cost Data'!$B$58</f>
+        <v>333211.96733545553</v>
       </c>
       <c r="F5" s="5">
-        <f>'Cost Data'!$B89</f>
-        <v>3332119.6733545554</v>
+        <f>'Cost Data'!$B90/'Cost Data'!$B$58</f>
+        <v>333211.96733545553</v>
       </c>
       <c r="G5" s="5">
-        <f>'Cost Data'!$B89</f>
-        <v>3332119.6733545554</v>
+        <f>'Cost Data'!$B90/'Cost Data'!$B$58</f>
+        <v>333211.96733545553</v>
       </c>
       <c r="H5" s="5">
-        <f>'Cost Data'!$C89</f>
-        <v>2434118.0622207024</v>
+        <f>'Cost Data'!$C90/'Cost Data'!$B$58</f>
+        <v>243411.80622207024</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3283,23 +3296,23 @@
         <v>0</v>
       </c>
       <c r="C6" s="5">
-        <f>'Cost Data'!$B90</f>
+        <f>'Cost Data'!$B91</f>
         <v>3000</v>
       </c>
       <c r="D6" s="5">
-        <f>'Cost Data'!$B90</f>
+        <f>'Cost Data'!$B91</f>
         <v>3000</v>
       </c>
       <c r="E6" s="5">
-        <f>'Cost Data'!$B90</f>
+        <f>'Cost Data'!$B91</f>
         <v>3000</v>
       </c>
       <c r="F6" s="5">
-        <f>'Cost Data'!$B90</f>
+        <f>'Cost Data'!$B91</f>
         <v>3000</v>
       </c>
       <c r="G6" s="5">
-        <f>'Cost Data'!$B90</f>
+        <f>'Cost Data'!$B91</f>
         <v>3000</v>
       </c>
       <c r="H6" s="26">
@@ -3311,31 +3324,31 @@
         <v>7</v>
       </c>
       <c r="B7" s="5">
-        <f>'Cost Data'!$C91</f>
+        <f>'Cost Data'!$C92</f>
         <v>480.24283381885334</v>
       </c>
       <c r="C7" s="5">
-        <f>'Cost Data'!$B91</f>
+        <f>'Cost Data'!$B92</f>
         <v>914.32735845675347</v>
       </c>
       <c r="D7" s="5">
-        <f>'Cost Data'!$B91</f>
+        <f>'Cost Data'!$B92</f>
         <v>914.32735845675347</v>
       </c>
       <c r="E7" s="5">
-        <f>'Cost Data'!$B91</f>
+        <f>'Cost Data'!$B92</f>
         <v>914.32735845675347</v>
       </c>
       <c r="F7" s="5">
-        <f>'Cost Data'!$B91</f>
+        <f>'Cost Data'!$B92</f>
         <v>914.32735845675347</v>
       </c>
       <c r="G7" s="5">
-        <f>'Cost Data'!$B91</f>
+        <f>'Cost Data'!$B92</f>
         <v>914.32735845675347</v>
       </c>
       <c r="H7" s="5">
-        <f>'Cost Data'!$C91</f>
+        <f>'Cost Data'!$C92</f>
         <v>480.24283381885334</v>
       </c>
     </row>
@@ -3409,31 +3422,31 @@
         <v>2</v>
       </c>
       <c r="B2" s="6">
-        <f>'Cost Data'!$C95</f>
+        <f>'Cost Data'!$C96</f>
         <v>344.72326776048766</v>
       </c>
       <c r="C2" s="6">
-        <f>'Cost Data'!$B95</f>
+        <f>'Cost Data'!$B96</f>
         <v>656.31362430473212</v>
       </c>
       <c r="D2" s="6">
-        <f>'Cost Data'!$B95</f>
+        <f>'Cost Data'!$B96</f>
         <v>656.31362430473212</v>
       </c>
       <c r="E2" s="6">
-        <f>'Cost Data'!$B95</f>
+        <f>'Cost Data'!$B96</f>
         <v>656.31362430473212</v>
       </c>
       <c r="F2" s="6">
-        <f>'Cost Data'!$B95</f>
+        <f>'Cost Data'!$B96</f>
         <v>656.31362430473212</v>
       </c>
       <c r="G2" s="6">
-        <f>'Cost Data'!$B95</f>
+        <f>'Cost Data'!$B96</f>
         <v>656.31362430473212</v>
       </c>
       <c r="H2" s="6">
-        <f>'Cost Data'!$C95</f>
+        <f>'Cost Data'!$C96</f>
         <v>344.72326776048766</v>
       </c>
     </row>
@@ -3446,27 +3459,27 @@
         <v>17878.571428571428</v>
       </c>
       <c r="C3" s="6">
-        <f>'Cost Data'!$B96</f>
+        <f>'Cost Data'!$B97</f>
         <v>15000</v>
       </c>
       <c r="D3" s="6">
-        <f>'Cost Data'!$B96</f>
+        <f>'Cost Data'!$B97</f>
         <v>15000</v>
       </c>
       <c r="E3" s="6">
-        <f>'Cost Data'!$B96</f>
+        <f>'Cost Data'!$B97</f>
         <v>15000</v>
       </c>
       <c r="F3" s="6">
-        <f>'Cost Data'!$B96</f>
+        <f>'Cost Data'!$B97</f>
         <v>15000</v>
       </c>
       <c r="G3" s="6">
-        <f>'Cost Data'!$B96</f>
+        <f>'Cost Data'!$B97</f>
         <v>15000</v>
       </c>
       <c r="H3" s="6">
-        <f>'Cost Data'!$C96</f>
+        <f>'Cost Data'!$C97</f>
         <v>11785.714285714286</v>
       </c>
     </row>
@@ -3478,23 +3491,23 @@
         <v>0</v>
       </c>
       <c r="C4" s="6">
-        <f>'Cost Data'!$B97</f>
+        <f>'Cost Data'!$B98</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="D4" s="6">
-        <f>'Cost Data'!$B97</f>
+        <f>'Cost Data'!$B98</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="E4" s="6">
-        <f>'Cost Data'!$B97</f>
+        <f>'Cost Data'!$B98</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="F4" s="6">
-        <f>'Cost Data'!$B97</f>
+        <f>'Cost Data'!$B98</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="G4" s="6">
-        <f>'Cost Data'!$B97</f>
+        <f>'Cost Data'!$B98</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="H4" s="26">
@@ -3506,31 +3519,31 @@
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <f>'Cost Data'!$C98</f>
+        <f>'Cost Data'!$C99</f>
         <v>2434118.0622207024</v>
       </c>
       <c r="C5" s="6">
-        <f>'Cost Data'!$B98</f>
+        <f>'Cost Data'!$B99</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="D5" s="6">
-        <f>'Cost Data'!$B98</f>
+        <f>'Cost Data'!$B99</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="E5" s="6">
-        <f>'Cost Data'!$B98</f>
+        <f>'Cost Data'!$B99</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="F5" s="6">
-        <f>'Cost Data'!$B98</f>
+        <f>'Cost Data'!$B99</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="G5" s="6">
-        <f>'Cost Data'!$B98</f>
+        <f>'Cost Data'!$B99</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="H5" s="6">
-        <f>'Cost Data'!$C98</f>
+        <f>'Cost Data'!$C99</f>
         <v>2434118.0622207024</v>
       </c>
     </row>
@@ -3542,23 +3555,23 @@
         <v>0</v>
       </c>
       <c r="C6" s="6">
-        <f>'Cost Data'!$B99</f>
+        <f>'Cost Data'!$B100</f>
         <v>1695890</v>
       </c>
       <c r="D6" s="6">
-        <f>'Cost Data'!$B99</f>
+        <f>'Cost Data'!$B100</f>
         <v>1695890</v>
       </c>
       <c r="E6" s="6">
-        <f>'Cost Data'!$B99</f>
+        <f>'Cost Data'!$B100</f>
         <v>1695890</v>
       </c>
       <c r="F6" s="6">
-        <f>'Cost Data'!$B99</f>
+        <f>'Cost Data'!$B100</f>
         <v>1695890</v>
       </c>
       <c r="G6" s="6">
-        <f>'Cost Data'!$B99</f>
+        <f>'Cost Data'!$B100</f>
         <v>1695890</v>
       </c>
       <c r="H6" s="26">

--- a/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
+++ b/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-oregon\InputData\trans\AVMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E467C304-77C0-4F8A-A60E-A74F8115DF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBA7331-8F27-499D-9AF2-8C5F93D7C8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,7 +466,7 @@
     <t>LBNL: Includes annual ongoing mainteance and annualized battery replacement every 7 years over a 28 year life</t>
   </si>
   <si>
-    <t>rail cars per locomotive</t>
+    <t>Rail cars per locomotive</t>
   </si>
 </sst>
 </file>
@@ -2277,7 +2277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA56E7A-E0B4-48E9-AA66-C39B91D43ABA}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>

--- a/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
+++ b/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us-analysis\InputData\trans\AVMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\OR\trans\AVMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B3C505-ECAA-49CA-9672-DF5CF56F78F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{014CFA43-5779-47E0-A0DB-A26C4A74BAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="165" windowWidth="20895" windowHeight="16965" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Cost Data" sheetId="16" r:id="rId2"/>
-    <sheet name="AVMC-passenger" sheetId="2" r:id="rId3"/>
-    <sheet name="AVMC-freight" sheetId="4" r:id="rId4"/>
+    <sheet name="LDVs" sheetId="18" r:id="rId2"/>
+    <sheet name="Cost Data" sheetId="16" r:id="rId3"/>
+    <sheet name="BAADTbVT-passengers" sheetId="17" r:id="rId4"/>
+    <sheet name="BAADTbVT-freight" sheetId="19" r:id="rId5"/>
+    <sheet name="AVMC-passenger" sheetId="2" r:id="rId6"/>
+    <sheet name="AVMC-freight" sheetId="4" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="Eno_TM">'[1]1997  Table 1a Modified'!#REF!</definedName>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="144">
   <si>
     <t>Sources:</t>
   </si>
@@ -94,24 +97,9 @@
     <t>$/year</t>
   </si>
   <si>
-    <t>Page 12, Figure 7</t>
-  </si>
-  <si>
-    <t>https://www.2degreesinstitute.org/reports/comparing_fuel_and_maintenance_costs_of_electric_and_gas_powered_vehicles_in_canada.pdf</t>
-  </si>
-  <si>
-    <t>Comparing Fuel and Maintenance Costs of Electric and Gas Powered Vehiclesin Canada</t>
-  </si>
-  <si>
-    <t>2 Degrees Institute</t>
-  </si>
-  <si>
     <t>ICE</t>
   </si>
   <si>
-    <t>2018 CAD/yr</t>
-  </si>
-  <si>
     <t>BEV</t>
   </si>
   <si>
@@ -121,9 +109,6 @@
     <t>https://www.energy.gov/eere/electricvehicles/electric-car-safety-maintenance-and-battery-life</t>
   </si>
   <si>
-    <t>LDVs (ICE and BEV)</t>
-  </si>
-  <si>
     <t>Overall Assumptions</t>
   </si>
   <si>
@@ -464,15 +449,44 @@
   </si>
   <si>
     <t>LBNL: Includes annual ongoing mainteance and annualized battery replacement every 7 years over a 28 year life</t>
+  </si>
+  <si>
+    <t>Annual Distance (miles/vehicle)</t>
+  </si>
+  <si>
+    <t>PHEV</t>
+  </si>
+  <si>
+    <t>2012$/mile</t>
+  </si>
+  <si>
+    <t>2011 USD per 2021 USD</t>
+  </si>
+  <si>
+    <t>Department of Energy Vehicle Technologies Office</t>
+  </si>
+  <si>
+    <t>Battery-Electric Vehicles Have Lower Scheduled Maintenance Costs than Other Light-Duty Vehicles</t>
+  </si>
+  <si>
+    <t>https://www.energy.gov/eere/vehicles/articles/fotw-1190-june-14-2021-battery-electric-vehicles-have-lower-scheduled</t>
+  </si>
+  <si>
+    <t>Annual Costs - passenger</t>
+  </si>
+  <si>
+    <t>Annual Costs - freight</t>
+  </si>
+  <si>
+    <t>Oregon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="###0.00_)"/>
@@ -481,7 +495,7 @@
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -730,6 +744,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1295,7 +1315,7 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1306,22 +1326,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="140"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1330,6 +1346,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="140" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="141">
     <cellStyle name="20% - Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1485,6 +1505,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552094</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E4EDB1-786D-F5B5-C034-017B77AC456A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25400" y="0"/>
+          <a:ext cx="5403494" cy="4229100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1889,10 +1958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1900,325 +1969,334 @@
     <col min="2" max="2" width="73.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="25">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="B5" s="3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="3">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="3">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="3">
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="3">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="3">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="3">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="3">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="3">
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="3">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="B65" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="B66" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="3">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="3">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="3">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="B65" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="B66" t="s">
-        <v>127</v>
-      </c>
-    </row>
     <row r="67" spans="1:2">
-      <c r="B67" s="3">
-        <v>2018</v>
+      <c r="B67" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="B68" t="s">
-        <v>126</v>
+      <c r="B68" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="B69" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="B70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
+      <c r="B69" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
-        <v>35</v>
+      <c r="A74">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="B74" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>1.2969999999999999</v>
+        <v>0.84730412960844359</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2226,7 +2304,7 @@
         <v>0.9143273584567535</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2234,7 +2312,7 @@
         <v>0.95661376543184151</v>
       </c>
       <c r="B77" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2242,7 +2320,7 @@
         <v>0.93665959530026111</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2250,32 +2328,111 @@
         <v>1.0663762232760343</v>
       </c>
       <c r="B79" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="41" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{F7E7A3DE-93B2-4E97-8034-BE9FA2CBB032}"/>
-    <hyperlink ref="B14" r:id="rId2" xr:uid="{0A5F8456-85E2-4B46-98CB-42301965587F}"/>
-    <hyperlink ref="B35" r:id="rId3" display="https://www.icao.int/MID/Documents/2017/Aviation Data and Analysis Seminar/PPT3 - Airlines Operating costs and productivity.pdf" xr:uid="{32C07062-31D6-4D64-9941-54355C398A54}"/>
-    <hyperlink ref="B28" r:id="rId4" xr:uid="{A1682FDD-C2BD-495E-8A6B-5F03193720A5}"/>
-    <hyperlink ref="B42" r:id="rId5" xr:uid="{86CB5594-D53D-4996-A0D1-BB39C7D7D625}"/>
-    <hyperlink ref="B48" r:id="rId6" xr:uid="{B0ED8C7C-30CE-4966-BD3F-14CBF2AB2A2B}"/>
-    <hyperlink ref="B55" r:id="rId7" xr:uid="{B27ABC8E-899E-48AC-8608-F37B2EDFED93}"/>
-    <hyperlink ref="B62" r:id="rId8" display="http://www.sparusa.com/Presentations/Presentation-Commercial Ship Life Cycle &amp; Required Freight Rate (RFR) Cost Model.pdf" xr:uid="{4BC70352-C238-4681-9474-B434C82A9EE6}"/>
-    <hyperlink ref="B69" r:id="rId9" xr:uid="{5439DEF3-45BA-42A3-B033-B27D7C2B3817}"/>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{0A5F8456-85E2-4B46-98CB-42301965587F}"/>
+    <hyperlink ref="B34" r:id="rId2" display="https://www.icao.int/MID/Documents/2017/Aviation Data and Analysis Seminar/PPT3 - Airlines Operating costs and productivity.pdf" xr:uid="{32C07062-31D6-4D64-9941-54355C398A54}"/>
+    <hyperlink ref="B27" r:id="rId3" xr:uid="{A1682FDD-C2BD-495E-8A6B-5F03193720A5}"/>
+    <hyperlink ref="B41" r:id="rId4" xr:uid="{86CB5594-D53D-4996-A0D1-BB39C7D7D625}"/>
+    <hyperlink ref="B47" r:id="rId5" xr:uid="{B0ED8C7C-30CE-4966-BD3F-14CBF2AB2A2B}"/>
+    <hyperlink ref="B54" r:id="rId6" xr:uid="{B27ABC8E-899E-48AC-8608-F37B2EDFED93}"/>
+    <hyperlink ref="B61" r:id="rId7" display="http://www.sparusa.com/Presentations/Presentation-Commercial Ship Life Cycle &amp; Required Freight Rate (RFR) Cost Model.pdf" xr:uid="{4BC70352-C238-4681-9474-B434C82A9EE6}"/>
+    <hyperlink ref="B68" r:id="rId8" xr:uid="{5439DEF3-45BA-42A3-B033-B27D7C2B3817}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A440739-7B96-498F-B2B5-51AE7EE1D4FD}">
+  <dimension ref="K1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="11:14" s="24" customFormat="1" ht="45">
+      <c r="L1" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="11:14">
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="M2">
+        <f>L2*'BAADTbVT-passengers'!$B$2</f>
+        <v>1146.6070044711444</v>
+      </c>
+      <c r="N2">
+        <f>L2*'BAADTbVT-freight'!$B$2</f>
+        <v>1000.4265479134275</v>
+      </c>
+    </row>
+    <row r="3" spans="11:14">
+      <c r="K3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L3">
+        <v>0.09</v>
+      </c>
+      <c r="M3">
+        <f>L3*'BAADTbVT-passengers'!$B$2</f>
+        <v>1021.7290138851781</v>
+      </c>
+      <c r="N3">
+        <f>L3*'BAADTbVT-freight'!$B$2</f>
+        <v>891.46920111097484</v>
+      </c>
+    </row>
+    <row r="4" spans="11:14">
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="M4">
+        <f>L4*'BAADTbVT-passengers'!$B$2</f>
+        <v>692.50522052217627</v>
+      </c>
+      <c r="N4">
+        <f>L4*'BAADTbVT-freight'!$B$2</f>
+        <v>604.21801408632746</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA56E7A-E0B4-48E9-AA66-C39B91D43ABA}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2287,804 +2444,745 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="9" t="s">
-        <v>24</v>
+      <c r="B7" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="9" t="s">
-        <v>23</v>
+      <c r="B13" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="27" t="s">
-        <v>130</v>
+      <c r="B14" s="23" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15" s="27" t="s">
-        <v>131</v>
+      <c r="B15" s="23" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="10">
-        <v>931</v>
+        <v>16</v>
+      </c>
+      <c r="B18" s="8">
+        <v>15000</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="10">
-        <v>489</v>
+        <v>17</v>
+      </c>
+      <c r="B19" s="8">
+        <f>6500+100*1062*3/28</f>
+        <v>17878.571428571428</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="12">
-        <f>B18/About!$A$75*About!$A$76</f>
-        <v>656.31362430473212</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="12">
-        <f>B19/About!$A$75*About!$A$76</f>
-        <v>344.72326776048766</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
+      <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0.22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="10">
-        <v>15000</v>
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>9270</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B25" s="10">
-        <f>6500+100*1062*3/28</f>
-        <v>17878.571428571428</v>
+        <f>$B$24*B22</f>
+        <v>2595.6000000000004</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" t="s">
-        <v>139</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="10">
+        <f>$B$24*B23</f>
+        <v>2039.4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="10">
+        <f>B25*About!$A$77</f>
+        <v>2482.986689554888</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="13">
-        <v>0.28000000000000003</v>
+        <v>17</v>
+      </c>
+      <c r="B28" s="10">
+        <f>B26*About!$A$77</f>
+        <v>1950.9181132216977</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="13">
-        <v>0.22</v>
-      </c>
-      <c r="C29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" t="s">
-        <v>48</v>
-      </c>
+      <c r="B29" s="10"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30">
-        <v>9270</v>
-      </c>
-      <c r="C30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>51</v>
-      </c>
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="13">
-        <f>$B$30*B28</f>
-        <v>2595.6000000000004</v>
+        <v>50</v>
+      </c>
+      <c r="B31" s="14">
+        <v>590</v>
       </c>
       <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" s="14">
+        <f>B31*About!$A$78</f>
+        <v>552.6291612271541</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="B33">
+        <v>11.3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="B34">
+        <v>365</v>
+      </c>
+      <c r="C34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="13">
-        <f>$B$30*B29</f>
-        <v>2039.4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="13">
-        <f>B31*About!$A$77</f>
-        <v>2482.986689554888</v>
-      </c>
-      <c r="C33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="13">
-        <f>B32*About!$A$77</f>
-        <v>1950.9181132216977</v>
-      </c>
-      <c r="C34" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="35" spans="1:4">
-      <c r="B35" s="13"/>
+      <c r="B35" s="14">
+        <f>B32*B33*B34</f>
+        <v>2279318.9754813975</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="11"/>
+      <c r="B36" s="14"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="17">
-        <v>590</v>
-      </c>
-      <c r="C37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" t="s">
-        <v>59</v>
-      </c>
+      <c r="A37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="B38" s="17">
-        <f>B37*About!$A$78</f>
-        <v>552.6291612271541</v>
-      </c>
-      <c r="C38" t="s">
-        <v>72</v>
-      </c>
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="14"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="B39" s="19">
-        <v>11.3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" t="s">
-        <v>59</v>
-      </c>
+      <c r="A39" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="14"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="B40" s="19">
-        <v>365</v>
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="10">
+        <v>14.36</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="B41" s="17">
-        <f>B38*B39*B40</f>
-        <v>2279318.9754813975</v>
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="10">
+        <v>10.49</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>80</v>
+      </c>
+      <c r="D41" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="B42" s="17"/>
+      <c r="B42" s="14"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="11"/>
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="20">
+        <f>AVERAGE(21.4,22.7,23.1,25.8,31.2)</f>
+        <v>24.839999999999996</v>
+      </c>
+      <c r="C43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>96</v>
-      </c>
-      <c r="B44" s="17"/>
+        <v>82</v>
+      </c>
+      <c r="B44">
+        <f>24*365</f>
+        <v>8760</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45" s="17"/>
+      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="5">
+        <f>B43*B44</f>
+        <v>217598.39999999997</v>
+      </c>
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" s="13">
-        <v>14.36</v>
-      </c>
-      <c r="C46" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" t="s">
-        <v>97</v>
-      </c>
+      <c r="B46" s="14"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="13">
-        <v>10.49</v>
+      <c r="B47" s="14">
+        <f>B40*B45</f>
+        <v>3124713.0239999993</v>
       </c>
       <c r="C47" t="s">
         <v>86</v>
       </c>
-      <c r="D47" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="B48" s="17"/>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="14">
+        <f>B41*B45</f>
+        <v>2282607.2159999995</v>
+      </c>
+      <c r="C48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>108</v>
-      </c>
-      <c r="B49" s="24">
-        <f>AVERAGE(21.4,22.7,23.1,25.8,31.2)</f>
-        <v>24.839999999999996</v>
+        <v>85</v>
+      </c>
+      <c r="B49" s="14">
+        <f>B47*About!$A$79</f>
+        <v>3332119.6733545554</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="19">
-        <f>24*365</f>
-        <v>8760</v>
+        <v>89</v>
+      </c>
+      <c r="B50" s="14">
+        <f>B48*About!$A$79</f>
+        <v>2434118.0622207024</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="5">
-        <f>B49*B50</f>
-        <v>217598.39999999997</v>
-      </c>
-      <c r="C51" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="B52" s="17"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="17">
-        <f>B46*B51</f>
-        <v>3124713.0239999993</v>
-      </c>
-      <c r="C53" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="B51" s="14"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="B52" s="10"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="15"/>
+      <c r="C53" s="9"/>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>95</v>
-      </c>
-      <c r="B54" s="17">
-        <f>B47*B51</f>
-        <v>2282607.2159999995</v>
+        <v>50</v>
+      </c>
+      <c r="B54" s="14">
+        <v>1000</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>91</v>
-      </c>
-      <c r="B55" s="17">
-        <f>B53*About!$A$79</f>
-        <v>3332119.6733545554</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" s="14">
+        <f>B54*About!A76</f>
+        <v>914.32735845675347</v>
       </c>
       <c r="C55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56" s="17">
-        <f>B54*About!$A$79</f>
-        <v>2434118.0622207024</v>
-      </c>
-      <c r="C56" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="B57" s="17"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="B58" s="13"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="10"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="11"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="17">
-        <v>1000</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B57" s="10"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="10"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="10"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="10"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="B61" s="17">
-        <f>B60*About!A76</f>
-        <v>914.32735845675347</v>
-      </c>
-      <c r="C61" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="13"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>76</v>
-      </c>
-      <c r="B63" s="13"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>77</v>
-      </c>
-      <c r="B64" s="13"/>
+      <c r="B61" s="10"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>78</v>
-      </c>
-      <c r="B65" s="13"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B66" s="13"/>
+        <v>105</v>
+      </c>
+      <c r="B65" s="14">
+        <v>1695890</v>
+      </c>
+      <c r="C65" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>80</v>
-      </c>
-      <c r="B67" s="13"/>
+      <c r="A67" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="11" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
+      <c r="A69" s="11" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="1" t="s">
-        <v>110</v>
+      <c r="A70" s="11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>111</v>
-      </c>
-      <c r="B71" s="17">
-        <v>1695890</v>
+        <v>105</v>
+      </c>
+      <c r="B71" s="21">
+        <v>0.1</v>
       </c>
       <c r="C71" t="s">
-        <v>38</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="8">
+        <v>30000</v>
+      </c>
+      <c r="C72" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>111</v>
-      </c>
-      <c r="B77" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="C77" t="s">
-        <v>121</v>
+      <c r="A73" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73" s="8">
+        <f>B71*B72</f>
+        <v>3000</v>
+      </c>
+      <c r="C73" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B78" s="10">
-        <v>30000</v>
-      </c>
-      <c r="C78" t="s">
-        <v>123</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>124</v>
-      </c>
+      <c r="A78" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>111</v>
-      </c>
-      <c r="B79" s="10">
-        <f>B77*B78</f>
-        <v>3000</v>
-      </c>
-      <c r="C79" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="B85" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1" t="s">
+      <c r="B79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B86" s="20">
-        <f>B20</f>
-        <v>656.31362430473212</v>
-      </c>
-      <c r="C86" s="20">
-        <f>B21</f>
-        <v>344.72326776048766</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1" t="s">
+      <c r="B80" s="16">
+        <f>LDVs!M2</f>
+        <v>1146.6070044711444</v>
+      </c>
+      <c r="C80" s="16">
+        <f>LDVs!M4</f>
+        <v>692.50522052217627</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="20">
-        <f>B33</f>
+      <c r="B81" s="16">
+        <f>B27</f>
         <v>2482.986689554888</v>
       </c>
-      <c r="C87" s="20">
-        <f>B34</f>
+      <c r="C81" s="16">
+        <f>B28</f>
         <v>1950.9181132216977</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1" t="s">
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B88" s="20">
-        <f>B41</f>
+      <c r="B82" s="16">
+        <f>B35</f>
         <v>2279318.9754813975</v>
       </c>
-      <c r="C88" t="e">
+      <c r="C82" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="16">
+        <f>B49</f>
+        <v>3332119.6733545554</v>
+      </c>
+      <c r="C83" s="16">
+        <f>B50</f>
+        <v>2434118.0622207024</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="16">
+        <f>B73</f>
+        <v>3000</v>
+      </c>
+      <c r="C84" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="16">
+        <f>B55</f>
+        <v>914.32735845675347</v>
+      </c>
+      <c r="C85" s="17">
+        <f>B85*(C80/B80)</f>
+        <v>552.21751352338572</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="B88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89" s="20">
-        <f>B55</f>
-        <v>3332119.6733545554</v>
-      </c>
-      <c r="C89" s="20">
-        <f>B56</f>
-        <v>2434118.0622207024</v>
+        <v>2</v>
+      </c>
+      <c r="B89" s="16">
+        <f>LDVs!N2</f>
+        <v>1000.4265479134275</v>
+      </c>
+      <c r="C89" s="16">
+        <f>LDVs!N4</f>
+        <v>604.21801408632746</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B90" s="20">
-        <f>B79</f>
-        <v>3000</v>
-      </c>
-      <c r="C90" t="e">
+        <v>3</v>
+      </c>
+      <c r="B90" s="16">
+        <f>B18</f>
+        <v>15000</v>
+      </c>
+      <c r="C90" s="17">
+        <f>B90*(C81/B81)</f>
+        <v>11785.714285714286</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="16">
+        <f>B82</f>
+        <v>2279318.9754813975</v>
+      </c>
+      <c r="C91" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" s="20">
-        <f>B61</f>
-        <v>914.32735845675347</v>
-      </c>
-      <c r="C91" s="21">
-        <f>B91*(C86/B86)</f>
-        <v>480.24283381885334</v>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="16">
+        <f>B49</f>
+        <v>3332119.6733545554</v>
+      </c>
+      <c r="C92" s="16">
+        <f>B50</f>
+        <v>2434118.0622207024</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="B94" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B95" s="20">
-        <f>B86</f>
-        <v>656.31362430473212</v>
-      </c>
-      <c r="C95" s="20">
-        <f>C86</f>
-        <v>344.72326776048766</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" s="20">
-        <f>B24</f>
-        <v>15000</v>
-      </c>
-      <c r="C96" s="21">
-        <f>B96*(C87/B87)</f>
-        <v>11785.714285714286</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B97" s="20">
-        <f>B88</f>
-        <v>2279318.9754813975</v>
-      </c>
-      <c r="C97" t="e">
+      <c r="A93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="16">
+        <f>B65</f>
+        <v>1695890</v>
+      </c>
+      <c r="C93" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B98" s="20">
-        <f>B55</f>
-        <v>3332119.6733545554</v>
-      </c>
-      <c r="C98" s="20">
-        <f>B56</f>
-        <v>2434118.0622207024</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99" s="20">
-        <f>B71</f>
-        <v>1695890</v>
-      </c>
-      <c r="C99" t="e">
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B100" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C100" t="e">
+      <c r="C94" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -3093,279 +3191,1679 @@
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{DEA7D659-12AB-4A56-889B-D770D6477AD9}"/>
     <hyperlink ref="B13" r:id="rId2" xr:uid="{83856772-5164-484D-9C39-5E905DAB68CE}"/>
-    <hyperlink ref="A66" r:id="rId3" xr:uid="{CF3217FC-13DF-41C0-A64F-4474765B54A2}"/>
+    <hyperlink ref="A60" r:id="rId3" xr:uid="{CF3217FC-13DF-41C0-A64F-4474765B54A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E41685-1E05-444F-846C-9153432CF0DA}">
+  <dimension ref="A1:AH7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1">
+        <v>2018</v>
+      </c>
+      <c r="C1">
+        <v>2019</v>
+      </c>
+      <c r="D1">
+        <v>2020</v>
+      </c>
+      <c r="E1">
+        <v>2021</v>
+      </c>
+      <c r="F1">
+        <v>2022</v>
+      </c>
+      <c r="G1">
+        <v>2023</v>
+      </c>
+      <c r="H1">
+        <v>2024</v>
+      </c>
+      <c r="I1">
+        <v>2025</v>
+      </c>
+      <c r="J1">
+        <v>2026</v>
+      </c>
+      <c r="K1">
+        <v>2027</v>
+      </c>
+      <c r="L1">
+        <v>2028</v>
+      </c>
+      <c r="M1">
+        <v>2029</v>
+      </c>
+      <c r="N1">
+        <v>2030</v>
+      </c>
+      <c r="O1">
+        <v>2031</v>
+      </c>
+      <c r="P1">
+        <v>2032</v>
+      </c>
+      <c r="Q1">
+        <v>2033</v>
+      </c>
+      <c r="R1">
+        <v>2034</v>
+      </c>
+      <c r="S1">
+        <v>2035</v>
+      </c>
+      <c r="T1">
+        <v>2036</v>
+      </c>
+      <c r="U1">
+        <v>2037</v>
+      </c>
+      <c r="V1">
+        <v>2038</v>
+      </c>
+      <c r="W1">
+        <v>2039</v>
+      </c>
+      <c r="X1">
+        <v>2040</v>
+      </c>
+      <c r="Y1">
+        <v>2041</v>
+      </c>
+      <c r="Z1">
+        <v>2042</v>
+      </c>
+      <c r="AA1">
+        <v>2043</v>
+      </c>
+      <c r="AB1">
+        <v>2044</v>
+      </c>
+      <c r="AC1">
+        <v>2045</v>
+      </c>
+      <c r="AD1">
+        <v>2046</v>
+      </c>
+      <c r="AE1">
+        <v>2047</v>
+      </c>
+      <c r="AF1">
+        <v>2048</v>
+      </c>
+      <c r="AG1">
+        <v>2049</v>
+      </c>
+      <c r="AH1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="C2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="D2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="E2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="F2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="G2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="H2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="I2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="J2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="K2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="L2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="M2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="N2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="O2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="P2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="Q2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="R2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="S2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="T2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="U2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="V2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="W2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="X2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="Y2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="Z2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="AA2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="AB2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="AC2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="AD2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="AE2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="AF2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="AG2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="AH2">
+        <v>11352.544598724202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="C3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="D3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="E3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="F3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="G3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="H3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="I3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="J3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="K3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="L3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="M3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="N3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="O3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="P3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="Q3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="R3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="S3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="T3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="U3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="V3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="W3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="X3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="Y3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="Z3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="AA3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="AB3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="AC3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="AD3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="AE3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="AF3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="AG3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="AH3">
+        <v>10078.78705377418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="C4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="D4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="E4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="F4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="G4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="H4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="I4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="J4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="K4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="L4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="M4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="N4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="O4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="P4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="Q4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="R4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="S4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="T4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="U4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="V4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="W4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="X4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="Y4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="Z4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="AA4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="AB4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="AC4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="AD4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="AE4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="AF4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="AG4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="AH4">
+        <v>1280573.0572316123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="C5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="D5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="E5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="F5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="G5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="H5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="I5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="J5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="K5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="L5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="M5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="N5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="O5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="P5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="Q5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="R5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="S5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="T5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="U5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="V5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="W5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="X5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="Y5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="Z5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="AA5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="AB5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="AC5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="AD5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="AE5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="AF5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="AG5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="AH5">
+        <v>33681.515580485888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="C6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="D6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="E6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="F6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="G6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="H6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="I6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="J6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="K6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="L6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="M6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="N6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="O6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="P6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="Q6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="R6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="S6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="T6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="U6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="V6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="W6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="X6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="Y6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="Z6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="AA6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="AB6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="AC6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="AD6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="AE6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="AF6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="AG6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="AH6">
+        <v>194.17552144824873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="C7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="D7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="E7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="F7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="G7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="H7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="I7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="J7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="K7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="L7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="M7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="N7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="O7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="P7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="Q7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="R7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="S7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="T7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="U7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="V7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="W7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="X7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="Y7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="Z7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="AA7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="AB7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="AC7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="AD7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="AE7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="AF7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="AG7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="AH7">
+        <v>1929.9434721024677</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8B23E7-94D4-4A1A-8AA7-375C9DD91AAC}">
+  <dimension ref="A1:AG7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="30">
+      <c r="A1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="C2" s="5">
+        <f t="shared" ref="C2:R7" si="0">B2</f>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="D2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="E2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="F2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="G2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="H2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="I2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="J2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="K2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="L2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="M2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="N2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="O2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="P2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="Q2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="R2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="S2" s="5">
+        <f t="shared" ref="R2:AG7" si="1">R2</f>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="T2" s="5">
+        <f t="shared" si="1"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="U2" s="5">
+        <f t="shared" si="1"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="V2" s="5">
+        <f t="shared" si="1"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="W2" s="5">
+        <f t="shared" si="1"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="X2" s="5">
+        <f t="shared" si="1"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="Y2" s="5">
+        <f t="shared" si="1"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="Z2" s="5">
+        <f t="shared" si="1"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="AA2" s="5">
+        <f t="shared" si="1"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="AB2" s="5">
+        <f t="shared" si="1"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="AC2" s="5">
+        <f t="shared" si="1"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="AD2" s="5">
+        <f t="shared" si="1"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="AE2" s="5">
+        <f t="shared" si="1"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="AF2" s="5">
+        <f t="shared" si="1"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="AG2" s="5">
+        <f t="shared" si="1"/>
+        <v>9905.2133456774991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>37032.719616765411</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="K3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="P3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="R3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="S3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="T3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="U3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="V3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="W3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="X3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="Y3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="Z3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="AA3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="AB3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="AC3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="AD3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="AE3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="AF3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="AG3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>999951.98753447877</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="R4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="S4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="T4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="U4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="V4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="W4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="X4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="Y4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="Z4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="AA4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="AB4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="AC4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="AD4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="AE4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="AF4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="AG4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>19757.954395082073</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="R5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="S5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="T5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="U5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="V5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="W5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="X5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="Y5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="Z5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="AA5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="AB5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="AC5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="AD5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="AE5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="AF5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="AG5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>237371.13741892608</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="R6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="S6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="T6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="U6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="V6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="W6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="X6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="Y6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="Z6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="AA6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="AB6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="AC6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="AD6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="AE6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="AF6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="AG6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5">
-        <f>'Cost Data'!$C86</f>
-        <v>344.72326776048766</v>
-      </c>
-      <c r="C2" s="5">
-        <f>'Cost Data'!$B86</f>
-        <v>656.31362430473212</v>
-      </c>
-      <c r="D2" s="5">
-        <f>'Cost Data'!$B86</f>
-        <v>656.31362430473212</v>
-      </c>
-      <c r="E2" s="5">
-        <f>'Cost Data'!$B86</f>
-        <v>656.31362430473212</v>
-      </c>
-      <c r="F2" s="5">
-        <f>'Cost Data'!$B86</f>
-        <v>656.31362430473212</v>
-      </c>
-      <c r="G2" s="5">
-        <f>'Cost Data'!$B86</f>
-        <v>656.31362430473212</v>
-      </c>
-      <c r="H2" s="5">
-        <f>'Cost Data'!$C86</f>
-        <v>344.72326776048766</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5">
-        <f>'Cost Data'!$C87</f>
-        <v>1950.9181132216977</v>
-      </c>
-      <c r="C3" s="5">
-        <f>'Cost Data'!$B87</f>
-        <v>2482.986689554888</v>
-      </c>
-      <c r="D3" s="5">
-        <f>'Cost Data'!$B87</f>
-        <v>2482.986689554888</v>
-      </c>
-      <c r="E3" s="5">
-        <f>'Cost Data'!$B87</f>
-        <v>2482.986689554888</v>
-      </c>
-      <c r="F3" s="5">
-        <f>'Cost Data'!$B87</f>
-        <v>2482.986689554888</v>
-      </c>
-      <c r="G3" s="5">
-        <f>'Cost Data'!$B87</f>
-        <v>2482.986689554888</v>
-      </c>
-      <c r="H3" s="5">
-        <f>'Cost Data'!$C87</f>
-        <v>1950.9181132216977</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="26">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <f>'Cost Data'!$B88</f>
-        <v>2279318.9754813975</v>
-      </c>
-      <c r="D4" s="5">
-        <f>'Cost Data'!$B88</f>
-        <v>2279318.9754813975</v>
-      </c>
-      <c r="E4" s="5">
-        <f>'Cost Data'!$B88</f>
-        <v>2279318.9754813975</v>
-      </c>
-      <c r="F4" s="5">
-        <f>'Cost Data'!$B88</f>
-        <v>2279318.9754813975</v>
-      </c>
-      <c r="G4" s="5">
-        <f>'Cost Data'!$B88</f>
-        <v>2279318.9754813975</v>
-      </c>
-      <c r="H4" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5">
-        <f>'Cost Data'!$C89</f>
-        <v>2434118.0622207024</v>
-      </c>
-      <c r="C5" s="5">
-        <f>'Cost Data'!$B89</f>
-        <v>3332119.6733545554</v>
-      </c>
-      <c r="D5" s="5">
-        <f>'Cost Data'!$B89</f>
-        <v>3332119.6733545554</v>
-      </c>
-      <c r="E5" s="5">
-        <f>'Cost Data'!$B89</f>
-        <v>3332119.6733545554</v>
-      </c>
-      <c r="F5" s="5">
-        <f>'Cost Data'!$B89</f>
-        <v>3332119.6733545554</v>
-      </c>
-      <c r="G5" s="5">
-        <f>'Cost Data'!$B89</f>
-        <v>3332119.6733545554</v>
-      </c>
-      <c r="H5" s="5">
-        <f>'Cost Data'!$C89</f>
-        <v>2434118.0622207024</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="26">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <f>'Cost Data'!$B90</f>
-        <v>3000</v>
-      </c>
-      <c r="D6" s="5">
-        <f>'Cost Data'!$B90</f>
-        <v>3000</v>
-      </c>
-      <c r="E6" s="5">
-        <f>'Cost Data'!$B90</f>
-        <v>3000</v>
-      </c>
-      <c r="F6" s="5">
-        <f>'Cost Data'!$B90</f>
-        <v>3000</v>
-      </c>
-      <c r="G6" s="5">
-        <f>'Cost Data'!$B90</f>
-        <v>3000</v>
-      </c>
-      <c r="H6" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5">
-        <f>'Cost Data'!$C91</f>
-        <v>480.24283381885334</v>
-      </c>
-      <c r="C7" s="5">
-        <f>'Cost Data'!$B91</f>
-        <v>914.32735845675347</v>
-      </c>
-      <c r="D7" s="5">
-        <f>'Cost Data'!$B91</f>
-        <v>914.32735845675347</v>
-      </c>
-      <c r="E7" s="5">
-        <f>'Cost Data'!$B91</f>
-        <v>914.32735845675347</v>
-      </c>
-      <c r="F7" s="5">
-        <f>'Cost Data'!$B91</f>
-        <v>914.32735845675347</v>
-      </c>
-      <c r="G7" s="5">
-        <f>'Cost Data'!$B91</f>
-        <v>914.32735845675347</v>
-      </c>
-      <c r="H7" s="5">
-        <f>'Cost Data'!$C91</f>
-        <v>480.24283381885334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3379,7 +4877,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3408,96 +4906,96 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6">
-        <f>'Cost Data'!$C95</f>
-        <v>344.72326776048766</v>
-      </c>
-      <c r="C2" s="6">
-        <f>'Cost Data'!$B95</f>
-        <v>656.31362430473212</v>
-      </c>
-      <c r="D2" s="6">
-        <f>'Cost Data'!$B95</f>
-        <v>656.31362430473212</v>
-      </c>
-      <c r="E2" s="6">
-        <f>'Cost Data'!$B95</f>
-        <v>656.31362430473212</v>
-      </c>
-      <c r="F2" s="6">
-        <f>'Cost Data'!$B95</f>
-        <v>656.31362430473212</v>
-      </c>
-      <c r="G2" s="6">
-        <f>'Cost Data'!$B95</f>
-        <v>656.31362430473212</v>
-      </c>
-      <c r="H2" s="6">
-        <f>'Cost Data'!$C95</f>
-        <v>344.72326776048766</v>
+      <c r="B2" s="5">
+        <f>LDVs!$M$4</f>
+        <v>692.50522052217627</v>
+      </c>
+      <c r="C2" s="5">
+        <f>LDVs!$M$2</f>
+        <v>1146.6070044711444</v>
+      </c>
+      <c r="D2" s="5">
+        <f>LDVs!$M$2</f>
+        <v>1146.6070044711444</v>
+      </c>
+      <c r="E2" s="5">
+        <f>LDVs!$M$2</f>
+        <v>1146.6070044711444</v>
+      </c>
+      <c r="F2" s="5">
+        <f>LDVs!M3</f>
+        <v>1021.7290138851781</v>
+      </c>
+      <c r="G2" s="5">
+        <f>LDVs!$M$2</f>
+        <v>1146.6070044711444</v>
+      </c>
+      <c r="H2" s="5">
+        <f>B2</f>
+        <v>692.50522052217627</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
-        <f>'Cost Data'!B25</f>
-        <v>17878.571428571428</v>
-      </c>
-      <c r="C3" s="6">
-        <f>'Cost Data'!$B96</f>
-        <v>15000</v>
-      </c>
-      <c r="D3" s="6">
-        <f>'Cost Data'!$B96</f>
-        <v>15000</v>
-      </c>
-      <c r="E3" s="6">
-        <f>'Cost Data'!$B96</f>
-        <v>15000</v>
-      </c>
-      <c r="F3" s="6">
-        <f>'Cost Data'!$B96</f>
-        <v>15000</v>
-      </c>
-      <c r="G3" s="6">
-        <f>'Cost Data'!$B96</f>
-        <v>15000</v>
-      </c>
-      <c r="H3" s="6">
-        <f>'Cost Data'!$C96</f>
-        <v>11785.714285714286</v>
+      <c r="B3" s="5">
+        <f>'Cost Data'!$C81</f>
+        <v>1950.9181132216977</v>
+      </c>
+      <c r="C3" s="5">
+        <f>'Cost Data'!$B81</f>
+        <v>2482.986689554888</v>
+      </c>
+      <c r="D3" s="5">
+        <f>'Cost Data'!$B81</f>
+        <v>2482.986689554888</v>
+      </c>
+      <c r="E3" s="5">
+        <f>'Cost Data'!$B81</f>
+        <v>2482.986689554888</v>
+      </c>
+      <c r="F3" s="5">
+        <f>'Cost Data'!$B81</f>
+        <v>2482.986689554888</v>
+      </c>
+      <c r="G3" s="5">
+        <f>'Cost Data'!$B81</f>
+        <v>2482.986689554888</v>
+      </c>
+      <c r="H3" s="5">
+        <f>'Cost Data'!$C81</f>
+        <v>1950.9181132216977</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="22">
         <v>0</v>
       </c>
-      <c r="C4" s="6">
-        <f>'Cost Data'!$B97</f>
+      <c r="C4" s="5">
+        <f>'Cost Data'!$B82</f>
         <v>2279318.9754813975</v>
       </c>
-      <c r="D4" s="6">
-        <f>'Cost Data'!$B97</f>
+      <c r="D4" s="5">
+        <f>'Cost Data'!$B82</f>
         <v>2279318.9754813975</v>
       </c>
-      <c r="E4" s="6">
-        <f>'Cost Data'!$B97</f>
+      <c r="E4" s="5">
+        <f>'Cost Data'!$B82</f>
         <v>2279318.9754813975</v>
       </c>
-      <c r="F4" s="6">
-        <f>'Cost Data'!$B97</f>
+      <c r="F4" s="5">
+        <f>'Cost Data'!$B82</f>
         <v>2279318.9754813975</v>
       </c>
-      <c r="G4" s="6">
-        <f>'Cost Data'!$B97</f>
+      <c r="G4" s="5">
+        <f>'Cost Data'!$B82</f>
         <v>2279318.9754813975</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="22">
         <v>0</v>
       </c>
     </row>
@@ -3505,63 +5003,63 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
-        <f>'Cost Data'!$C98</f>
-        <v>2434118.0622207024</v>
-      </c>
-      <c r="C5" s="6">
-        <f>'Cost Data'!$B98</f>
-        <v>3332119.6733545554</v>
-      </c>
-      <c r="D5" s="6">
-        <f>'Cost Data'!$B98</f>
-        <v>3332119.6733545554</v>
-      </c>
-      <c r="E5" s="6">
-        <f>'Cost Data'!$B98</f>
-        <v>3332119.6733545554</v>
-      </c>
-      <c r="F5" s="6">
-        <f>'Cost Data'!$B98</f>
-        <v>3332119.6733545554</v>
-      </c>
-      <c r="G5" s="6">
-        <f>'Cost Data'!$B98</f>
-        <v>3332119.6733545554</v>
-      </c>
-      <c r="H5" s="6">
-        <f>'Cost Data'!$C98</f>
-        <v>2434118.0622207024</v>
+      <c r="B5" s="5">
+        <f>'Cost Data'!$C83/10</f>
+        <v>243411.80622207024</v>
+      </c>
+      <c r="C5" s="5">
+        <f>'Cost Data'!$B83/10</f>
+        <v>333211.96733545553</v>
+      </c>
+      <c r="D5" s="5">
+        <f>'Cost Data'!$B83/10</f>
+        <v>333211.96733545553</v>
+      </c>
+      <c r="E5" s="5">
+        <f>'Cost Data'!$B83/10</f>
+        <v>333211.96733545553</v>
+      </c>
+      <c r="F5" s="5">
+        <f>'Cost Data'!$B83/10</f>
+        <v>333211.96733545553</v>
+      </c>
+      <c r="G5" s="5">
+        <f>'Cost Data'!$B83/10</f>
+        <v>333211.96733545553</v>
+      </c>
+      <c r="H5" s="5">
+        <f>'Cost Data'!$C83/10</f>
+        <v>243411.80622207024</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="22">
         <v>0</v>
       </c>
-      <c r="C6" s="6">
-        <f>'Cost Data'!$B99</f>
-        <v>1695890</v>
-      </c>
-      <c r="D6" s="6">
-        <f>'Cost Data'!$B99</f>
-        <v>1695890</v>
-      </c>
-      <c r="E6" s="6">
-        <f>'Cost Data'!$B99</f>
-        <v>1695890</v>
-      </c>
-      <c r="F6" s="6">
-        <f>'Cost Data'!$B99</f>
-        <v>1695890</v>
-      </c>
-      <c r="G6" s="6">
-        <f>'Cost Data'!$B99</f>
-        <v>1695890</v>
-      </c>
-      <c r="H6" s="26">
+      <c r="C6" s="5">
+        <f>'Cost Data'!$B84</f>
+        <v>3000</v>
+      </c>
+      <c r="D6" s="5">
+        <f>'Cost Data'!$B84</f>
+        <v>3000</v>
+      </c>
+      <c r="E6" s="5">
+        <f>'Cost Data'!$B84</f>
+        <v>3000</v>
+      </c>
+      <c r="F6" s="5">
+        <f>'Cost Data'!$B84</f>
+        <v>3000</v>
+      </c>
+      <c r="G6" s="5">
+        <f>'Cost Data'!$B84</f>
+        <v>3000</v>
+      </c>
+      <c r="H6" s="22">
         <v>0</v>
       </c>
     </row>
@@ -3569,36 +5067,282 @@
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="5">
+        <f>'Cost Data'!$C85</f>
+        <v>552.21751352338572</v>
+      </c>
+      <c r="C7" s="5">
+        <f>'Cost Data'!$B85</f>
+        <v>914.32735845675347</v>
+      </c>
+      <c r="D7" s="5">
+        <f>'Cost Data'!$B85</f>
+        <v>914.32735845675347</v>
+      </c>
+      <c r="E7" s="5">
+        <f>'Cost Data'!$B85</f>
+        <v>914.32735845675347</v>
+      </c>
+      <c r="F7" s="5">
+        <f>'Cost Data'!$B85</f>
+        <v>914.32735845675347</v>
+      </c>
+      <c r="G7" s="5">
+        <f>'Cost Data'!$B85</f>
+        <v>914.32735845675347</v>
+      </c>
+      <c r="H7" s="5">
+        <f>'Cost Data'!$C85</f>
+        <v>552.21751352338572</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="8" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
+        <f>LDVs!N4</f>
+        <v>604.21801408632746</v>
+      </c>
+      <c r="C2" s="5">
+        <f>LDVs!$N$2</f>
+        <v>1000.4265479134275</v>
+      </c>
+      <c r="D2" s="5">
+        <f>LDVs!$N$2</f>
+        <v>1000.4265479134275</v>
+      </c>
+      <c r="E2" s="5">
+        <f>LDVs!$N$2</f>
+        <v>1000.4265479134275</v>
+      </c>
+      <c r="F2" s="5">
+        <f>LDVs!N3</f>
+        <v>891.46920111097484</v>
+      </c>
+      <c r="G2" s="5">
+        <f>LDVs!$N$2</f>
+        <v>1000.4265479134275</v>
+      </c>
+      <c r="H2" s="5">
+        <f>B2</f>
+        <v>604.21801408632746</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <f>'Cost Data'!B19</f>
+        <v>17878.571428571428</v>
+      </c>
+      <c r="C3" s="5">
+        <f>'Cost Data'!$B90</f>
+        <v>15000</v>
+      </c>
+      <c r="D3" s="5">
+        <f>'Cost Data'!$B90</f>
+        <v>15000</v>
+      </c>
+      <c r="E3" s="5">
+        <f>'Cost Data'!$B90</f>
+        <v>15000</v>
+      </c>
+      <c r="F3" s="5">
+        <f>'Cost Data'!$B90</f>
+        <v>15000</v>
+      </c>
+      <c r="G3" s="5">
+        <f>'Cost Data'!$B90</f>
+        <v>15000</v>
+      </c>
+      <c r="H3" s="5">
+        <f>'Cost Data'!$C90</f>
+        <v>11785.714285714286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="22">
         <v>0</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C4" s="5">
+        <f>'Cost Data'!$B91</f>
+        <v>2279318.9754813975</v>
+      </c>
+      <c r="D4" s="5">
+        <f>'Cost Data'!$B91</f>
+        <v>2279318.9754813975</v>
+      </c>
+      <c r="E4" s="5">
+        <f>'Cost Data'!$B91</f>
+        <v>2279318.9754813975</v>
+      </c>
+      <c r="F4" s="5">
+        <f>'Cost Data'!$B91</f>
+        <v>2279318.9754813975</v>
+      </c>
+      <c r="G4" s="5">
+        <f>'Cost Data'!$B91</f>
+        <v>2279318.9754813975</v>
+      </c>
+      <c r="H4" s="22">
         <v>0</v>
       </c>
-      <c r="D7" s="26">
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <f>'Cost Data'!$C92</f>
+        <v>2434118.0622207024</v>
+      </c>
+      <c r="C5" s="5">
+        <f>'Cost Data'!$B92</f>
+        <v>3332119.6733545554</v>
+      </c>
+      <c r="D5" s="5">
+        <f>'Cost Data'!$B92</f>
+        <v>3332119.6733545554</v>
+      </c>
+      <c r="E5" s="5">
+        <f>'Cost Data'!$B92</f>
+        <v>3332119.6733545554</v>
+      </c>
+      <c r="F5" s="5">
+        <f>'Cost Data'!$B92</f>
+        <v>3332119.6733545554</v>
+      </c>
+      <c r="G5" s="5">
+        <f>'Cost Data'!$B92</f>
+        <v>3332119.6733545554</v>
+      </c>
+      <c r="H5" s="5">
+        <f>'Cost Data'!$C92</f>
+        <v>2434118.0622207024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="22">
         <v>0</v>
       </c>
-      <c r="E7" s="26">
+      <c r="C6" s="5">
+        <f>'Cost Data'!$B93</f>
+        <v>1695890</v>
+      </c>
+      <c r="D6" s="5">
+        <f>'Cost Data'!$B93</f>
+        <v>1695890</v>
+      </c>
+      <c r="E6" s="5">
+        <f>'Cost Data'!$B93</f>
+        <v>1695890</v>
+      </c>
+      <c r="F6" s="5">
+        <f>'Cost Data'!$B93</f>
+        <v>1695890</v>
+      </c>
+      <c r="G6" s="5">
+        <f>'Cost Data'!$B93</f>
+        <v>1695890</v>
+      </c>
+      <c r="H6" s="22">
         <v>0</v>
       </c>
-      <c r="F7" s="26">
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="22">
         <v>0</v>
       </c>
-      <c r="G7" s="26">
+      <c r="C7" s="22">
         <v>0</v>
       </c>
-      <c r="H7" s="26">
+      <c r="D7" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="E7" s="22">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0</v>
+      </c>
+      <c r="G7" s="22">
+        <v>0</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
+++ b/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\OR\trans\AVMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{014CFA43-5779-47E0-A0DB-A26C4A74BAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3116B36-1A21-4E7C-B5A5-46CC4978218A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="165" windowWidth="20895" windowHeight="16965" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12720" yWindow="285" windowWidth="15915" windowHeight="16410" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1977,7 +1977,7 @@
         <v>143</v>
       </c>
       <c r="C1" s="25">
-        <v>44837</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5004,32 +5004,32 @@
         <v>5</v>
       </c>
       <c r="B5" s="5">
-        <f>'Cost Data'!$C83/10</f>
-        <v>243411.80622207024</v>
+        <f>'Cost Data'!$C83</f>
+        <v>2434118.0622207024</v>
       </c>
       <c r="C5" s="5">
-        <f>'Cost Data'!$B83/10</f>
-        <v>333211.96733545553</v>
+        <f>'Cost Data'!$B83</f>
+        <v>3332119.6733545554</v>
       </c>
       <c r="D5" s="5">
-        <f>'Cost Data'!$B83/10</f>
-        <v>333211.96733545553</v>
+        <f>'Cost Data'!$B83</f>
+        <v>3332119.6733545554</v>
       </c>
       <c r="E5" s="5">
-        <f>'Cost Data'!$B83/10</f>
-        <v>333211.96733545553</v>
+        <f>'Cost Data'!$B83</f>
+        <v>3332119.6733545554</v>
       </c>
       <c r="F5" s="5">
-        <f>'Cost Data'!$B83/10</f>
-        <v>333211.96733545553</v>
+        <f>'Cost Data'!$B83</f>
+        <v>3332119.6733545554</v>
       </c>
       <c r="G5" s="5">
-        <f>'Cost Data'!$B83/10</f>
-        <v>333211.96733545553</v>
+        <f>'Cost Data'!$B83</f>
+        <v>3332119.6733545554</v>
       </c>
       <c r="H5" s="5">
-        <f>'Cost Data'!$C83/10</f>
-        <v>243411.80622207024</v>
+        <f>'Cost Data'!$C83</f>
+        <v>2434118.0622207024</v>
       </c>
     </row>
     <row r="6" spans="1:8">
